--- a/stock/data/삼성물산.xlsx
+++ b/stock/data/삼성물산.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2284"/>
+  <dimension ref="A1:G2317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52977,10 +52977,769 @@
         <v>158500</v>
       </c>
       <c r="F2284" t="n">
-        <v>242895</v>
+        <v>243679</v>
       </c>
       <c r="G2284" t="n">
         <v>-0.9993753903810119</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B2285" t="n">
+        <v>160300</v>
+      </c>
+      <c r="C2285" t="n">
+        <v>160400</v>
+      </c>
+      <c r="D2285" t="n">
+        <v>155800</v>
+      </c>
+      <c r="E2285" t="n">
+        <v>157600</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>272552</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>-0.5678233438485805</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B2286" t="n">
+        <v>157700</v>
+      </c>
+      <c r="C2286" t="n">
+        <v>158400</v>
+      </c>
+      <c r="D2286" t="n">
+        <v>154500</v>
+      </c>
+      <c r="E2286" t="n">
+        <v>155000</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>358960</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>-1.649746192893401</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B2287" t="n">
+        <v>154100</v>
+      </c>
+      <c r="C2287" t="n">
+        <v>154900</v>
+      </c>
+      <c r="D2287" t="n">
+        <v>149800</v>
+      </c>
+      <c r="E2287" t="n">
+        <v>150300</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>444000</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>-3.032258064516129</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B2288" t="n">
+        <v>152000</v>
+      </c>
+      <c r="C2288" t="n">
+        <v>154200</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>151000</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>151700</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>252882</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.9314703925482368</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B2289" t="n">
+        <v>149300</v>
+      </c>
+      <c r="C2289" t="n">
+        <v>152400</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>149000</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>150800</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>232572</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>-0.5932762030323006</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B2290" t="n">
+        <v>149300</v>
+      </c>
+      <c r="C2290" t="n">
+        <v>153700</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>149300</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>151200</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>282687</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.2652519893899204</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B2291" t="n">
+        <v>153000</v>
+      </c>
+      <c r="C2291" t="n">
+        <v>153100</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>149300</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>149300</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>284627</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>-1.256613756613757</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B2292" t="n">
+        <v>140100</v>
+      </c>
+      <c r="C2292" t="n">
+        <v>147000</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>138200</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>147000</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>735130</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>-1.540522438044206</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B2293" t="n">
+        <v>145100</v>
+      </c>
+      <c r="C2293" t="n">
+        <v>145500</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>139500</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>140100</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>616557</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>-4.693877551020408</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B2294" t="n">
+        <v>139500</v>
+      </c>
+      <c r="C2294" t="n">
+        <v>145900</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>139000</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>144500</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>431582</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>3.140613847251963</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B2295" t="n">
+        <v>143000</v>
+      </c>
+      <c r="C2295" t="n">
+        <v>144900</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>141100</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>144500</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>332224</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B2296" t="n">
+        <v>144900</v>
+      </c>
+      <c r="C2296" t="n">
+        <v>144900</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>137300</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>138800</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>361125</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>-3.944636678200692</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B2297" t="n">
+        <v>138600</v>
+      </c>
+      <c r="C2297" t="n">
+        <v>141700</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>138000</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>140300</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>255891</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>1.080691642651297</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B2298" t="n">
+        <v>137300</v>
+      </c>
+      <c r="C2298" t="n">
+        <v>139500</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>136600</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>138200</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>289202</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>-1.496792587312901</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B2299" t="n">
+        <v>141600</v>
+      </c>
+      <c r="C2299" t="n">
+        <v>148000</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>141200</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>147400</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>330503</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>6.657018813314037</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B2300" t="n">
+        <v>146100</v>
+      </c>
+      <c r="C2300" t="n">
+        <v>151300</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>146000</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>150400</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>430541</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>2.03527815468114</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B2301" t="n">
+        <v>151600</v>
+      </c>
+      <c r="C2301" t="n">
+        <v>152500</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>150400</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>249442</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B2302" t="n">
+        <v>150400</v>
+      </c>
+      <c r="C2302" t="n">
+        <v>151500</v>
+      </c>
+      <c r="D2302" t="n">
+        <v>149200</v>
+      </c>
+      <c r="E2302" t="n">
+        <v>150100</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>238866</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>-0.199468085106383</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B2303" t="n">
+        <v>151400</v>
+      </c>
+      <c r="C2303" t="n">
+        <v>153900</v>
+      </c>
+      <c r="D2303" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E2303" t="n">
+        <v>151100</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>157213</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.6662225183211192</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B2304" t="n">
+        <v>152600</v>
+      </c>
+      <c r="C2304" t="n">
+        <v>153300</v>
+      </c>
+      <c r="D2304" t="n">
+        <v>149800</v>
+      </c>
+      <c r="E2304" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>253592</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>-0.727994705493051</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B2305" t="n">
+        <v>149200</v>
+      </c>
+      <c r="C2305" t="n">
+        <v>151500</v>
+      </c>
+      <c r="D2305" t="n">
+        <v>149200</v>
+      </c>
+      <c r="E2305" t="n">
+        <v>150100</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>269026</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B2306" t="n">
+        <v>149400</v>
+      </c>
+      <c r="C2306" t="n">
+        <v>151000</v>
+      </c>
+      <c r="D2306" t="n">
+        <v>144700</v>
+      </c>
+      <c r="E2306" t="n">
+        <v>146100</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>217014</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>-2.664890073284477</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B2307" t="n">
+        <v>146700</v>
+      </c>
+      <c r="C2307" t="n">
+        <v>147400</v>
+      </c>
+      <c r="D2307" t="n">
+        <v>144000</v>
+      </c>
+      <c r="E2307" t="n">
+        <v>146000</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>170231</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>-0.06844626967830253</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B2308" t="n">
+        <v>147500</v>
+      </c>
+      <c r="C2308" t="n">
+        <v>151000</v>
+      </c>
+      <c r="D2308" t="n">
+        <v>146000</v>
+      </c>
+      <c r="E2308" t="n">
+        <v>150300</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>251625</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>2.945205479452055</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B2309" t="n">
+        <v>150900</v>
+      </c>
+      <c r="C2309" t="n">
+        <v>153500</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>149300</v>
+      </c>
+      <c r="E2309" t="n">
+        <v>152200</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>202061</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>1.264138389886893</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B2310" t="n">
+        <v>152900</v>
+      </c>
+      <c r="C2310" t="n">
+        <v>153000</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>147600</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>148400</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>331775</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>-2.496714848883049</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B2311" t="n">
+        <v>149500</v>
+      </c>
+      <c r="C2311" t="n">
+        <v>152500</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>149100</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>140426</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>1.078167115902965</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B2312" t="n">
+        <v>150900</v>
+      </c>
+      <c r="C2312" t="n">
+        <v>152700</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>148300</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>149300</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>199167</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>-0.4666666666666667</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B2313" t="n">
+        <v>149400</v>
+      </c>
+      <c r="C2313" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>146600</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>167852</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.4688546550569324</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B2314" t="n">
+        <v>152800</v>
+      </c>
+      <c r="C2314" t="n">
+        <v>154800</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>150900</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>153100</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>385798</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>2.066666666666666</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B2315" t="n">
+        <v>152100</v>
+      </c>
+      <c r="C2315" t="n">
+        <v>153900</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>150300</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>151800</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>175100</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>-0.8491182233834096</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B2316" t="n">
+        <v>152100</v>
+      </c>
+      <c r="C2316" t="n">
+        <v>152500</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>150500</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>151500</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>136946</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>-0.1976284584980237</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B2317" t="n">
+        <v>149900</v>
+      </c>
+      <c r="C2317" t="n">
+        <v>150100</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>147500</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>148400</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>234100</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>-2.046204620462046</v>
       </c>
     </row>
   </sheetData>
